--- a/SchedulingData/static8/pso/scheduling1_10.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_10.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.40000000000001</v>
+        <v>50.02</v>
       </c>
       <c r="E2" t="n">
-        <v>24.66</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144.94</v>
+        <v>77.3</v>
       </c>
       <c r="E3" t="n">
-        <v>20.796</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.90000000000001</v>
+        <v>80.92</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="D5" t="n">
-        <v>74.36</v>
+        <v>150.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.204</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="6">
@@ -542,93 +542,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.36</v>
+        <v>150.2</v>
       </c>
       <c r="D6" t="n">
-        <v>126.14</v>
+        <v>188.54</v>
       </c>
       <c r="E6" t="n">
-        <v>22.156</v>
+        <v>19.496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>80.92</v>
       </c>
       <c r="D7" t="n">
-        <v>90.86</v>
+        <v>166.22</v>
       </c>
       <c r="E7" t="n">
-        <v>26.064</v>
+        <v>22.648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>64.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>120.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>22.28</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>166.22</v>
       </c>
       <c r="D9" t="n">
-        <v>65.44</v>
+        <v>218.96</v>
       </c>
       <c r="E9" t="n">
-        <v>27.096</v>
+        <v>18.504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>60.92</v>
+        <v>142.5</v>
       </c>
       <c r="E10" t="n">
-        <v>26.568</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>90.86</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>163.14</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>21.976</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>126.14</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>207.48</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>17.112</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>144.94</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>189.36</v>
+        <v>123.58</v>
       </c>
       <c r="E13" t="n">
-        <v>17.484</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>163.14</v>
+        <v>123.58</v>
       </c>
       <c r="D14" t="n">
-        <v>245.74</v>
+        <v>168</v>
       </c>
       <c r="E14" t="n">
-        <v>18.336</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.44</v>
+        <v>50.02</v>
       </c>
       <c r="D15" t="n">
-        <v>141</v>
+        <v>114.42</v>
       </c>
       <c r="E15" t="n">
-        <v>23.16</v>
+        <v>23.328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
+        <v>114.42</v>
       </c>
       <c r="D16" t="n">
-        <v>195.08</v>
+        <v>171.3</v>
       </c>
       <c r="E16" t="n">
-        <v>20.352</v>
+        <v>19.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189.36</v>
+        <v>142.5</v>
       </c>
       <c r="D17" t="n">
-        <v>245.26</v>
+        <v>199.6</v>
       </c>
       <c r="E17" t="n">
-        <v>14.004</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>245.74</v>
+        <v>199.6</v>
       </c>
       <c r="D18" t="n">
-        <v>323.14</v>
+        <v>280.06</v>
       </c>
       <c r="E18" t="n">
-        <v>12.736</v>
+        <v>11.044</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60.92</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>106.76</v>
+        <v>142.56</v>
       </c>
       <c r="E19" t="n">
-        <v>23.604</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="20">
@@ -808,150 +808,150 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>323.14</v>
+        <v>168</v>
       </c>
       <c r="D20" t="n">
-        <v>378.34</v>
+        <v>213.76</v>
       </c>
       <c r="E20" t="n">
-        <v>8.356</v>
+        <v>13.704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>245.26</v>
+        <v>142.56</v>
       </c>
       <c r="D21" t="n">
-        <v>299.56</v>
+        <v>204.44</v>
       </c>
       <c r="E21" t="n">
-        <v>10.704</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>207.48</v>
+        <v>171.3</v>
       </c>
       <c r="D22" t="n">
-        <v>259.68</v>
+        <v>238.88</v>
       </c>
       <c r="E22" t="n">
-        <v>13.032</v>
+        <v>14.632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>106.76</v>
+        <v>238.88</v>
       </c>
       <c r="D23" t="n">
-        <v>173.46</v>
+        <v>280.8</v>
       </c>
       <c r="E23" t="n">
-        <v>20.044</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>195.08</v>
+        <v>218.96</v>
       </c>
       <c r="D24" t="n">
-        <v>246.48</v>
+        <v>294.68</v>
       </c>
       <c r="E24" t="n">
-        <v>16.832</v>
+        <v>14.552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>378.34</v>
+        <v>204.44</v>
       </c>
       <c r="D25" t="n">
-        <v>436.12</v>
+        <v>265.84</v>
       </c>
       <c r="E25" t="n">
-        <v>3.708</v>
+        <v>15.416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>436.12</v>
+        <v>280.06</v>
       </c>
       <c r="D26" t="n">
-        <v>515.3</v>
+        <v>326.5</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>515.3</v>
+        <v>188.54</v>
       </c>
       <c r="D27" t="n">
-        <v>587</v>
+        <v>247.44</v>
       </c>
       <c r="E27" t="n">
-        <v>25.98</v>
+        <v>15.716</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>587</v>
+        <v>213.76</v>
       </c>
       <c r="D28" t="n">
-        <v>654</v>
+        <v>268.74</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9</v>
+        <v>9.336</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>259.68</v>
+        <v>294.68</v>
       </c>
       <c r="D29" t="n">
-        <v>318.02</v>
+        <v>370.78</v>
       </c>
       <c r="E29" t="n">
-        <v>10.328</v>
+        <v>10.532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>318.02</v>
+        <v>280.8</v>
       </c>
       <c r="D30" t="n">
-        <v>370.74</v>
+        <v>335.9</v>
       </c>
       <c r="E30" t="n">
-        <v>6.676</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>173.46</v>
+        <v>265.84</v>
       </c>
       <c r="D31" t="n">
-        <v>254.76</v>
+        <v>335.58</v>
       </c>
       <c r="E31" t="n">
-        <v>14.524</v>
+        <v>11.552</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>254.76</v>
+        <v>335.58</v>
       </c>
       <c r="D32" t="n">
-        <v>300.28</v>
+        <v>396.4</v>
       </c>
       <c r="E32" t="n">
-        <v>11.612</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="33">
@@ -1055,150 +1055,150 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>120.5</v>
+        <v>335.9</v>
       </c>
       <c r="D33" t="n">
-        <v>180.38</v>
+        <v>416.7</v>
       </c>
       <c r="E33" t="n">
-        <v>17.912</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>300.28</v>
+        <v>416.7</v>
       </c>
       <c r="D34" t="n">
-        <v>368.94</v>
+        <v>521.5599999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>8.336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>370.74</v>
+        <v>521.5599999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>418.88</v>
+        <v>567.5599999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>3.972</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>654</v>
+        <v>326.5</v>
       </c>
       <c r="D36" t="n">
-        <v>739.26</v>
+        <v>394.7</v>
       </c>
       <c r="E36" t="n">
-        <v>17.984</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>246.48</v>
+        <v>396.4</v>
       </c>
       <c r="D37" t="n">
-        <v>288.38</v>
+        <v>469.22</v>
       </c>
       <c r="E37" t="n">
-        <v>14.272</v>
+        <v>4.908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>299.56</v>
+        <v>268.74</v>
       </c>
       <c r="D38" t="n">
-        <v>354.98</v>
+        <v>325.82</v>
       </c>
       <c r="E38" t="n">
-        <v>7.272</v>
+        <v>5.248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>354.98</v>
+        <v>247.44</v>
       </c>
       <c r="D39" t="n">
-        <v>398.38</v>
+        <v>312.28</v>
       </c>
       <c r="E39" t="n">
-        <v>4.552</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>418.88</v>
+        <v>370.78</v>
       </c>
       <c r="D40" t="n">
-        <v>502.54</v>
+        <v>419.74</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>502.54</v>
+        <v>312.28</v>
       </c>
       <c r="D41" t="n">
-        <v>578.9400000000001</v>
+        <v>356.16</v>
       </c>
       <c r="E41" t="n">
-        <v>25.02</v>
+        <v>9.564</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>739.26</v>
+        <v>419.74</v>
       </c>
       <c r="D42" t="n">
-        <v>809.26</v>
+        <v>469.54</v>
       </c>
       <c r="E42" t="n">
-        <v>14.084</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>180.38</v>
+        <v>394.7</v>
       </c>
       <c r="D43" t="n">
-        <v>255.78</v>
+        <v>481.3</v>
       </c>
       <c r="E43" t="n">
-        <v>13.492</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>288.38</v>
+        <v>481.3</v>
       </c>
       <c r="D44" t="n">
-        <v>335.56</v>
+        <v>587.12</v>
       </c>
       <c r="E44" t="n">
-        <v>10.684</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,112 +1283,112 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>368.94</v>
+        <v>469.22</v>
       </c>
       <c r="D45" t="n">
-        <v>426.04</v>
+        <v>542.62</v>
       </c>
       <c r="E45" t="n">
-        <v>4.256</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>255.78</v>
+        <v>542.62</v>
       </c>
       <c r="D46" t="n">
-        <v>318.88</v>
+        <v>623.1</v>
       </c>
       <c r="E46" t="n">
-        <v>9.292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>335.56</v>
+        <v>469.54</v>
       </c>
       <c r="D47" t="n">
-        <v>386.6</v>
+        <v>528.84</v>
       </c>
       <c r="E47" t="n">
-        <v>8.220000000000001</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>318.88</v>
+        <v>528.84</v>
       </c>
       <c r="D48" t="n">
-        <v>378.18</v>
+        <v>623.01</v>
       </c>
       <c r="E48" t="n">
-        <v>6.452</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>426.04</v>
+        <v>587.12</v>
       </c>
       <c r="D49" t="n">
-        <v>474.92</v>
+        <v>622.2</v>
       </c>
       <c r="E49" t="n">
-        <v>1.008</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>474.92</v>
+        <v>623.01</v>
       </c>
       <c r="D50" t="n">
-        <v>569.3</v>
+        <v>679.03</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="51">
@@ -1397,112 +1397,112 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>378.18</v>
+        <v>567.5599999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>432.66</v>
+        <v>631.92</v>
       </c>
       <c r="E51" t="n">
-        <v>3.644</v>
+        <v>23.244</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>432.66</v>
+        <v>325.82</v>
       </c>
       <c r="D52" t="n">
-        <v>526.67</v>
+        <v>406.14</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>526.67</v>
+        <v>406.14</v>
       </c>
       <c r="D53" t="n">
-        <v>588.41</v>
+        <v>474.41</v>
       </c>
       <c r="E53" t="n">
-        <v>25.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>398.38</v>
+        <v>623.1</v>
       </c>
       <c r="D54" t="n">
-        <v>479.42</v>
+        <v>674.02</v>
       </c>
       <c r="E54" t="n">
-        <v>0.548</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>479.42</v>
+        <v>622.2</v>
       </c>
       <c r="D55" t="n">
-        <v>579.8200000000001</v>
+        <v>702.3</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>22.772</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>386.6</v>
+        <v>474.41</v>
       </c>
       <c r="D56" t="n">
-        <v>435.98</v>
+        <v>524.3099999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>4.412</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="57">
@@ -1511,150 +1511,150 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>435.98</v>
+        <v>702.3</v>
       </c>
       <c r="D57" t="n">
-        <v>485.08</v>
+        <v>751.5599999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.632</v>
+        <v>18.976</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>485.08</v>
+        <v>679.03</v>
       </c>
       <c r="D58" t="n">
-        <v>565.8200000000001</v>
+        <v>745.37</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>23.544</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>565.8200000000001</v>
+        <v>631.92</v>
       </c>
       <c r="D59" t="n">
-        <v>632.9400000000001</v>
+        <v>720.9</v>
       </c>
       <c r="E59" t="n">
-        <v>26.448</v>
+        <v>19.436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>578.9400000000001</v>
+        <v>745.37</v>
       </c>
       <c r="D60" t="n">
-        <v>641.04</v>
+        <v>813.61</v>
       </c>
       <c r="E60" t="n">
-        <v>21.42</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>632.9400000000001</v>
+        <v>524.3099999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>688.36</v>
+        <v>561.3099999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>23.016</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>579.8200000000001</v>
+        <v>751.5599999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>649.78</v>
+        <v>810.7</v>
       </c>
       <c r="E62" t="n">
-        <v>27.144</v>
+        <v>15.192</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>569.3</v>
+        <v>561.3099999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>621.22</v>
+        <v>633.91</v>
       </c>
       <c r="E63" t="n">
-        <v>27.008</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>688.36</v>
+        <v>356.16</v>
       </c>
       <c r="D64" t="n">
-        <v>762.2</v>
+        <v>442.36</v>
       </c>
       <c r="E64" t="n">
-        <v>19.232</v>
+        <v>4.044</v>
       </c>
     </row>
     <row r="65">
@@ -1663,93 +1663,93 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>621.22</v>
+        <v>674.02</v>
       </c>
       <c r="D65" t="n">
-        <v>678.86</v>
+        <v>715.0599999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>22.864</v>
+        <v>24.124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>641.04</v>
+        <v>633.91</v>
       </c>
       <c r="D66" t="n">
-        <v>700.84</v>
+        <v>720.8099999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>17.58</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>762.2</v>
+        <v>442.36</v>
       </c>
       <c r="D67" t="n">
-        <v>811.72</v>
+        <v>501.34</v>
       </c>
       <c r="E67" t="n">
-        <v>16.4</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>678.86</v>
+        <v>501.34</v>
       </c>
       <c r="D68" t="n">
-        <v>732.16</v>
+        <v>600.17</v>
       </c>
       <c r="E68" t="n">
-        <v>18.664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>588.41</v>
+        <v>600.17</v>
       </c>
       <c r="D69" t="n">
-        <v>653.55</v>
+        <v>641.8099999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>23.092</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>700.84</v>
+        <v>641.8099999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>742.38</v>
+        <v>727.61</v>
       </c>
       <c r="E70" t="n">
-        <v>14.556</v>
+        <v>22.556</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>649.78</v>
+        <v>720.9</v>
       </c>
       <c r="D71" t="n">
-        <v>735.1</v>
+        <v>780.84</v>
       </c>
       <c r="E71" t="n">
-        <v>23.192</v>
+        <v>16.532</v>
       </c>
     </row>
   </sheetData>
